--- a/dart game results.xlsx
+++ b/dart game results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects 1\computational-theory-and-stat-coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFEA4C9-B4D3-4997-ACF7-2B207D35F7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C7214C-584E-48D3-A44C-122C9B982EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FB5D50E3-41C8-4632-BE1E-6DB6D77BC851}"/>
   </bookViews>
@@ -16383,7 +16383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A1D384-974B-49D1-B980-9FF2E2C29C9C}">
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N132" sqref="N132"/>
     </sheetView>
   </sheetViews>

--- a/dart game results.xlsx
+++ b/dart game results.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects 1\computational-theory-and-stat-coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C7214C-584E-48D3-A44C-122C9B982EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C381D7A2-520D-4718-8694-AD25A569B65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockRevision="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FB5D50E3-41C8-4632-BE1E-6DB6D77BC851}"/>
   </bookViews>
@@ -16,9 +17,23 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="User - Personal View" guid="{DE25F0C8-2BD5-48BF-A302-DFFA84087B13}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1066" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -16084,10 +16099,28 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D15C7CF6-75D4-4028-A05D-127367C2B0D4}" protected="1">
+  <header guid="{D15C7CF6-75D4-4028-A05D-127367C2B0D4}" dateTime="2024-03-02T13:32:00" maxSheetId="2" userName="User" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -16125,7 +16158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -16231,7 +16264,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16373,7 +16406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17687,8 +17720,15 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{DE25F0C8-2BD5-48BF-A302-DFFA84087B13}">
+      <selection activeCell="N132" sqref="N132"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>